--- a/biology/Zoologie/Brancasaurus/Brancasaurus.xlsx
+++ b/biology/Zoologie/Brancasaurus/Brancasaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brancasaurus brancai
 Brancasaurus (qui signifie « lézard de Branca ») est un genre éteint de plésiosaures qui vivait dans un lac d'eau douce du Crétacé inférieur de l'actuelle Rhénanie-du-Nord-Westphalie, en Allemagne.
@@ -513,7 +525,9 @@
           <t>Fossile</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L' espèce type de ce genre est Brancasaurus brancai, nommée pour la première fois par Theodor Hubert Wegner (d) en 1914 en l'honneur du paléontologue allemand Wilhelm von Branca. Un autre plésiosaure nommé dans la même région, Gronausaurus wegneri, représente très probablement un synonyme de ce genre. Alors qu'il était traditionnellement considéré comme un membre basal des Elasmosauridae, Brancasaurus a récemment été placé comme membre, ou proche parent, des Leptocleididae, un groupe contenant de nombreux autres plésiosaures d'eau douce[réf. nécessaire].
 </t>
